--- a/app/Licenciatura_em_Historia.xlsx
+++ b/app/Licenciatura_em_Historia.xlsx
@@ -13,43 +13,39 @@
     <sheet name="20153081" sheetId="3" r:id="rId6"/>
     <sheet name="20153078" sheetId="4" r:id="rId7"/>
     <sheet name="20153062" sheetId="5" r:id="rId8"/>
-    <sheet name="20154463" sheetId="6" r:id="rId9"/>
-    <sheet name="20153090" sheetId="7" r:id="rId10"/>
-    <sheet name="20153057" sheetId="8" r:id="rId11"/>
-    <sheet name="20153074" sheetId="9" r:id="rId12"/>
-    <sheet name="20153077" sheetId="10" r:id="rId13"/>
-    <sheet name="20153085" sheetId="11" r:id="rId14"/>
-    <sheet name="20153080" sheetId="12" r:id="rId15"/>
-    <sheet name="20153071" sheetId="13" r:id="rId16"/>
-    <sheet name="20153068" sheetId="14" r:id="rId17"/>
-    <sheet name="20153067" sheetId="15" r:id="rId18"/>
-    <sheet name="20153058" sheetId="16" r:id="rId19"/>
-    <sheet name="20153086" sheetId="17" r:id="rId20"/>
-    <sheet name="20153060" sheetId="18" r:id="rId21"/>
-    <sheet name="20153072" sheetId="19" r:id="rId22"/>
-    <sheet name="20153065" sheetId="20" r:id="rId23"/>
-    <sheet name="20153084" sheetId="21" r:id="rId24"/>
-    <sheet name="20153088" sheetId="22" r:id="rId25"/>
-    <sheet name="20154527" sheetId="23" r:id="rId26"/>
-    <sheet name="20153087" sheetId="24" r:id="rId27"/>
-    <sheet name="20153075" sheetId="25" r:id="rId28"/>
-    <sheet name="20154825" sheetId="26" r:id="rId29"/>
-    <sheet name="20153089" sheetId="27" r:id="rId30"/>
-    <sheet name="20153083" sheetId="28" r:id="rId31"/>
-    <sheet name="20153073" sheetId="29" r:id="rId32"/>
-    <sheet name="20153091" sheetId="30" r:id="rId33"/>
-    <sheet name="20154464" sheetId="31" r:id="rId34"/>
-    <sheet name="20153063" sheetId="32" r:id="rId35"/>
-    <sheet name="20153082" sheetId="33" r:id="rId36"/>
-    <sheet name="20153070" sheetId="34" r:id="rId37"/>
-    <sheet name="20153079" sheetId="35" r:id="rId38"/>
-    <sheet name="20153076" sheetId="36" r:id="rId39"/>
-    <sheet name="20153066" sheetId="37" r:id="rId40"/>
-    <sheet name="20153059" sheetId="38" r:id="rId41"/>
-    <sheet name="20153061" sheetId="39" r:id="rId42"/>
-    <sheet name="20153064" sheetId="40" r:id="rId43"/>
-    <sheet name="Sheet2" sheetId="41" r:id="rId44"/>
-    <sheet name="Sheet3" sheetId="42" r:id="rId45"/>
+    <sheet name="20153090" sheetId="6" r:id="rId9"/>
+    <sheet name="20153057" sheetId="7" r:id="rId10"/>
+    <sheet name="20153074" sheetId="8" r:id="rId11"/>
+    <sheet name="20153077" sheetId="9" r:id="rId12"/>
+    <sheet name="20153085" sheetId="10" r:id="rId13"/>
+    <sheet name="20153080" sheetId="11" r:id="rId14"/>
+    <sheet name="20153071" sheetId="12" r:id="rId15"/>
+    <sheet name="20153068" sheetId="13" r:id="rId16"/>
+    <sheet name="20153067" sheetId="14" r:id="rId17"/>
+    <sheet name="20153058" sheetId="15" r:id="rId18"/>
+    <sheet name="20153086" sheetId="16" r:id="rId19"/>
+    <sheet name="20153060" sheetId="17" r:id="rId20"/>
+    <sheet name="20153072" sheetId="18" r:id="rId21"/>
+    <sheet name="20153065" sheetId="19" r:id="rId22"/>
+    <sheet name="20153084" sheetId="20" r:id="rId23"/>
+    <sheet name="20153088" sheetId="21" r:id="rId24"/>
+    <sheet name="20153087" sheetId="22" r:id="rId25"/>
+    <sheet name="20153075" sheetId="23" r:id="rId26"/>
+    <sheet name="20153089" sheetId="24" r:id="rId27"/>
+    <sheet name="20153083" sheetId="25" r:id="rId28"/>
+    <sheet name="20153073" sheetId="26" r:id="rId29"/>
+    <sheet name="20153091" sheetId="27" r:id="rId30"/>
+    <sheet name="20153063" sheetId="28" r:id="rId31"/>
+    <sheet name="20153082" sheetId="29" r:id="rId32"/>
+    <sheet name="20153070" sheetId="30" r:id="rId33"/>
+    <sheet name="20153079" sheetId="31" r:id="rId34"/>
+    <sheet name="20153076" sheetId="32" r:id="rId35"/>
+    <sheet name="20153066" sheetId="33" r:id="rId36"/>
+    <sheet name="20153059" sheetId="34" r:id="rId37"/>
+    <sheet name="20153061" sheetId="35" r:id="rId38"/>
+    <sheet name="20153064" sheetId="36" r:id="rId39"/>
+    <sheet name="Sheet2" sheetId="37" r:id="rId40"/>
+    <sheet name="Sheet3" sheetId="38" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -57,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -206,9 +202,6 @@
     <t>HortÊncia Mateus Ngoca</t>
   </si>
   <si>
-    <t>Distrito de Homoine</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -245,9 +238,6 @@
     <t>Usia Peulane Lambo</t>
   </si>
   <si>
-    <t>Distrito de Vilanculos</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -275,9 +265,6 @@
     <t>Angelina Jose Uate</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>+258829102076</t>
   </si>
   <si>
@@ -299,9 +286,6 @@
     <t>Rosa Muchanga</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100100024048I</t>
   </si>
   <si>
@@ -311,15 +295,6 @@
     <t>Escola Secundaria Quisse Mavota</t>
   </si>
   <si>
-    <t>Sumburane</t>
-  </si>
-  <si>
-    <t>Cristina Manhiça</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Sousa</t>
   </si>
   <si>
@@ -335,9 +310,6 @@
     <t>Neli Alberto Matola</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110501245076J</t>
   </si>
   <si>
@@ -383,9 +355,6 @@
     <t>Beatriz Samuel D.mugana</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -407,9 +376,6 @@
     <t>Mara  Filipe Sigauque</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090102282064B</t>
   </si>
   <si>
@@ -458,9 +424,6 @@
     <t>Auzenda Salvador</t>
   </si>
   <si>
-    <t>Distrito de Moamba</t>
-  </si>
-  <si>
     <t>100701069044A</t>
   </si>
   <si>
@@ -575,9 +538,6 @@
     <t>Gilda Mandlhaze</t>
   </si>
   <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
     <t>090100828104A</t>
   </si>
   <si>
@@ -602,9 +562,6 @@
     <t>Helena Augusto Mueio</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>080100180921F</t>
   </si>
   <si>
@@ -704,12 +661,6 @@
     <t>+258828788615</t>
   </si>
   <si>
-    <t>Matsimbe</t>
-  </si>
-  <si>
-    <t>Cassiano Justino</t>
-  </si>
-  <si>
     <t>Matlabana</t>
   </si>
   <si>
@@ -752,12 +703,6 @@
     <t>+258827340745</t>
   </si>
   <si>
-    <t>Manhique</t>
-  </si>
-  <si>
-    <t>Sheldon Germano António</t>
-  </si>
-  <si>
     <t>Manhanguele</t>
   </si>
   <si>
@@ -839,21 +784,12 @@
     <t>Ana Da Graca Chidzinga</t>
   </si>
   <si>
-    <t>Distrito de Guijá</t>
-  </si>
-  <si>
     <t>090704225270B</t>
   </si>
   <si>
     <t>+258822654021</t>
   </si>
   <si>
-    <t>Joahane</t>
-  </si>
-  <si>
-    <t>Lilia Gertrudes</t>
-  </si>
-  <si>
     <t>Francisco</t>
   </si>
   <si>
@@ -893,9 +829,6 @@
     <t>Teoldimira C. Augusto</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040100490626A</t>
   </si>
   <si>
@@ -1020,9 +953,6 @@
   </si>
   <si>
     <t>Feliza Antonio Cave</t>
-  </si>
-  <si>
-    <t>Distrito de Boane</t>
   </si>
   <si>
     <t>100201839991J</t>
@@ -2288,7 +2218,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153077</v>
+        <v>20153085</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2312,7 +2242,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2328,7 +2258,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2344,7 +2274,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2360,7 +2290,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2376,7 +2306,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2391,9 +2321,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2401,7 +2329,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2412,7 +2340,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2421,7 +2349,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2433,7 +2361,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2441,7 +2369,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2537,7 +2465,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2564,7 +2492,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2580,7 +2508,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2883,7 +2811,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153085</v>
+        <v>20153080</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2907,7 +2835,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2923,7 +2851,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2939,7 +2867,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2955,7 +2883,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2971,7 +2899,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2986,9 +2914,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2996,7 +2922,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3007,7 +2933,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3016,7 +2942,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3028,7 +2954,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3036,7 +2962,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3132,7 +3058,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3159,7 +3085,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3175,7 +3101,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3478,7 +3404,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153080</v>
+        <v>20153071</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3502,7 +3428,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3518,7 +3444,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3534,7 +3460,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3550,7 +3476,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3566,7 +3492,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3581,9 +3507,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>133</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3591,7 +3515,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3602,7 +3526,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3611,7 +3535,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3623,7 +3547,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3631,7 +3555,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3727,7 +3651,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3770,7 +3694,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4073,7 +3997,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153071</v>
+        <v>20153068</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4097,7 +4021,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4113,7 +4037,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4129,7 +4053,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4145,7 +4069,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4161,7 +4085,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4176,9 +4100,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4186,7 +4108,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4197,7 +4119,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4206,7 +4128,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4218,7 +4140,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4226,7 +4148,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4322,7 +4244,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4349,7 +4271,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4365,7 +4287,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4668,7 +4590,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153068</v>
+        <v>20153067</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4692,7 +4614,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4708,7 +4630,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4724,7 +4646,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4740,7 +4662,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4756,7 +4678,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4771,9 +4693,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4781,7 +4701,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4792,7 +4712,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4801,7 +4721,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4813,7 +4733,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4821,7 +4741,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4917,7 +4837,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4944,7 +4864,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4960,7 +4880,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5263,7 +5183,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153067</v>
+        <v>20153058</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5287,7 +5207,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5303,7 +5223,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5319,7 +5239,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5335,7 +5255,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5351,7 +5271,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5366,9 +5286,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5376,7 +5294,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5387,7 +5305,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5396,7 +5314,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5408,7 +5326,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5416,7 +5334,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5512,7 +5430,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5539,7 +5457,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5555,7 +5473,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5858,7 +5776,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153058</v>
+        <v>20153086</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5882,7 +5800,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5898,7 +5816,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5914,7 +5832,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5930,7 +5848,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5946,7 +5864,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5961,9 +5879,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5971,7 +5887,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5982,7 +5898,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5991,7 +5907,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6003,7 +5919,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6011,7 +5927,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6107,7 +6023,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6134,7 +6050,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6150,7 +6066,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6453,7 +6369,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153086</v>
+        <v>20153060</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6477,7 +6393,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6493,7 +6409,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6509,7 +6425,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6525,7 +6441,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6541,7 +6457,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6556,9 +6472,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>172</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6566,7 +6480,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6577,7 +6491,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6586,7 +6500,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6598,7 +6512,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6606,7 +6520,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6702,7 +6616,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6729,7 +6643,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6745,7 +6659,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7048,7 +6962,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153060</v>
+        <v>20153072</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7072,7 +6986,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7088,7 +7002,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7104,7 +7018,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7120,7 +7034,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7136,7 +7050,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7151,9 +7065,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7161,7 +7073,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7172,7 +7084,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7181,7 +7093,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7193,7 +7105,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7201,7 +7113,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7297,7 +7209,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7324,7 +7236,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7340,7 +7252,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7643,7 +7555,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153072</v>
+        <v>20153065</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7667,7 +7579,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7683,7 +7595,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7699,7 +7611,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7715,7 +7627,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7731,7 +7643,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7746,9 +7658,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7756,7 +7666,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7767,7 +7677,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7776,7 +7686,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7788,7 +7698,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7796,7 +7706,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7892,7 +7802,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7919,7 +7829,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7935,7 +7845,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8341,9 +8251,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8351,7 +8259,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8362,7 +8270,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8371,7 +8279,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8383,7 +8291,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8391,7 +8299,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8487,7 +8395,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8530,7 +8438,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8833,7 +8741,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153065</v>
+        <v>20153084</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8857,7 +8765,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8873,7 +8781,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8889,7 +8797,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8905,7 +8813,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8921,7 +8829,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8936,9 +8844,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8946,7 +8852,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8957,7 +8863,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8966,7 +8872,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8978,7 +8884,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8986,7 +8892,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9082,7 +8988,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9109,7 +9015,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9125,7 +9031,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9428,7 +9334,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153084</v>
+        <v>20153088</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9452,7 +9358,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9468,7 +9374,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9484,7 +9390,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9500,7 +9406,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9516,7 +9422,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9531,9 +9437,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9541,7 +9445,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9552,7 +9456,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9561,7 +9465,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9573,7 +9477,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9581,7 +9485,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9677,7 +9581,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9720,7 +9624,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10023,7 +9927,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153088</v>
+        <v>20153087</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10047,7 +9951,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10063,7 +9967,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10079,7 +9983,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10095,7 +9999,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10111,7 +10015,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10126,9 +10030,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10136,7 +10038,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10147,7 +10049,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10156,7 +10058,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10168,7 +10070,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10176,7 +10078,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10272,7 +10174,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10299,7 +10201,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10315,7 +10217,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10566,7 +10468,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -10616,7 +10520,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154527</v>
+        <v>20153075</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10640,7 +10544,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10656,7 +10560,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10671,7 +10575,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -10685,7 +10591,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>212</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -10699,7 +10607,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>213</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -10720,7 +10630,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -10729,14 +10641,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -10746,13 +10662,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>214</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10847,7 +10767,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10873,7 +10793,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10887,7 +10809,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -11189,7 +11113,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153087</v>
+        <v>20153089</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11213,7 +11137,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11229,7 +11153,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11245,7 +11169,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11261,7 +11185,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11277,7 +11201,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11292,9 +11216,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11302,7 +11224,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11313,7 +11235,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11322,7 +11244,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11334,15 +11256,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>222</v>
+      <c r="H17" s="20">
+        <v>110501817306</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11438,7 +11360,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11465,7 +11387,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11481,7 +11403,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11784,7 +11706,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153075</v>
+        <v>20153083</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11808,7 +11730,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11824,7 +11746,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11840,7 +11762,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11856,7 +11778,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11872,7 +11794,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11887,9 +11809,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11897,7 +11817,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11908,7 +11828,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11917,7 +11837,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11929,7 +11849,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11937,7 +11857,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12033,7 +11953,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12076,7 +11996,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12327,7 +12247,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -12377,7 +12299,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154825</v>
+        <v>20153073</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12401,7 +12323,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12417,7 +12339,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12432,7 +12354,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>232</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -12446,7 +12370,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -12460,7 +12386,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -12481,7 +12409,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -12490,14 +12420,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -12507,13 +12441,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>235</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -12608,7 +12546,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12634,7 +12572,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2010</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -12648,7 +12588,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>237</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -12950,7 +12892,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153089</v>
+        <v>20153091</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12974,7 +12916,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12990,7 +12932,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13006,7 +12948,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13022,7 +12964,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13038,7 +12980,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13053,9 +12995,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13063,7 +13003,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13074,7 +13014,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13083,7 +13023,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13095,15 +13035,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>110501817306</v>
+      <c r="H17" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13199,7 +13139,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13242,7 +13182,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13545,7 +13485,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153083</v>
+        <v>20153063</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13569,7 +13509,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13585,7 +13525,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13601,7 +13541,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13617,7 +13557,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13633,7 +13573,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13648,9 +13588,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13658,7 +13596,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13669,7 +13607,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13678,7 +13616,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13690,7 +13628,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13698,7 +13636,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13794,7 +13732,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13821,7 +13759,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13837,7 +13775,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14140,7 +14078,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153073</v>
+        <v>20153082</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14164,7 +14102,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14180,7 +14118,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14196,7 +14134,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14212,7 +14150,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14228,7 +14166,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14243,9 +14181,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14253,7 +14189,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14264,7 +14200,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14273,7 +14209,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14285,7 +14221,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14293,7 +14229,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14389,7 +14325,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14416,7 +14352,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14432,7 +14368,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14759,7 +14695,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14775,7 +14711,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14791,7 +14727,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14807,7 +14743,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14823,7 +14759,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14838,9 +14774,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14848,7 +14782,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14859,7 +14793,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14868,7 +14802,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14880,7 +14814,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14888,7 +14822,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14984,7 +14918,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15027,7 +14961,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15330,7 +15264,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153091</v>
+        <v>20153070</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15354,7 +15288,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15370,7 +15304,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15386,7 +15320,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15402,7 +15336,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15418,7 +15352,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15433,9 +15367,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>260</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15443,7 +15375,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15454,7 +15386,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15463,7 +15395,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15475,7 +15407,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15483,7 +15415,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15579,7 +15511,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15606,7 +15538,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15622,7 +15554,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15873,7 +15805,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -15923,7 +15857,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154464</v>
+        <v>20153079</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15947,7 +15881,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15963,7 +15897,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15978,7 +15912,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>270</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -15992,7 +15928,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>271</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -16006,7 +15944,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>272</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -16027,7 +15967,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -16036,14 +15978,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -16053,13 +15999,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>273</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -16154,7 +16104,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>86</v>
+        <v>274</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16180,7 +16130,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -16194,7 +16146,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -16496,7 +16450,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153063</v>
+        <v>20153076</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16520,7 +16474,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16536,7 +16490,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16552,7 +16506,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16568,7 +16522,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16584,7 +16538,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16599,9 +16553,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16609,7 +16561,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16620,7 +16572,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16629,7 +16581,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16641,7 +16593,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16649,7 +16601,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16745,7 +16697,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16772,7 +16724,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16788,7 +16740,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17091,7 +17043,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153082</v>
+        <v>20153066</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17115,7 +17067,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17131,7 +17083,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17147,7 +17099,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17163,7 +17115,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17179,7 +17131,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17194,9 +17146,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>278</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17204,7 +17154,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17215,7 +17165,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17224,7 +17174,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17236,7 +17186,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17244,7 +17194,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17340,7 +17290,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17367,7 +17317,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17383,7 +17333,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17686,7 +17636,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153070</v>
+        <v>20153059</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17710,7 +17660,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17726,7 +17676,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17742,7 +17692,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17758,7 +17708,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17774,7 +17724,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17789,9 +17739,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17799,7 +17747,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17810,7 +17758,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17819,7 +17767,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17831,7 +17779,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17839,7 +17787,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17935,7 +17883,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17962,7 +17910,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17978,7 +17926,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>288</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18281,7 +18229,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153079</v>
+        <v>20153061</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18305,7 +18253,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18321,7 +18269,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18337,7 +18285,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18353,7 +18301,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18369,7 +18317,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18384,9 +18332,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18394,7 +18340,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18405,7 +18351,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18414,7 +18360,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18426,7 +18372,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18434,7 +18380,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18530,7 +18476,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18557,7 +18503,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18573,7 +18519,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18876,7 +18822,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153076</v>
+        <v>20153064</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18900,7 +18846,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18916,7 +18862,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18932,7 +18878,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18948,7 +18894,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18964,7 +18910,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18979,9 +18925,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18989,7 +18933,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19000,7 +18944,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19009,7 +18953,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19021,7 +18965,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19029,7 +18973,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19125,7 +19069,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19152,7 +19096,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19168,7 +19112,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19371,6 +19315,62 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
@@ -19471,7 +19471,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153066</v>
+        <v>20153078</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19495,7 +19495,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>296</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19511,7 +19511,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>303</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19527,7 +19527,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>304</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19543,7 +19543,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19559,7 +19559,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>306</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19574,9 +19574,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19584,7 +19582,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19595,7 +19593,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19604,7 +19602,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19616,15 +19614,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>307</v>
+      <c r="H17" s="20">
+        <v>2171508</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19720,7 +19718,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>308</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19747,7 +19745,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19763,7 +19761,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19961,2442 +19959,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153059</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153061</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153078</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>2171508</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153064</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -22526,7 +20088,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22542,7 +20104,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22558,7 +20120,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22574,7 +20136,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22590,7 +20152,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22605,9 +20167,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22615,7 +20175,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22626,7 +20186,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22635,7 +20195,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22647,7 +20207,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22655,7 +20215,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22751,7 +20311,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22794,7 +20354,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23045,7 +20605,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -23095,7 +20657,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154463</v>
+        <v>20153090</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23119,7 +20681,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23135,7 +20697,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23150,7 +20712,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -23164,7 +20728,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -23178,7 +20744,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -23199,7 +20767,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -23208,14 +20778,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -23225,13 +20799,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -23352,7 +20930,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -23366,7 +20946,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -23668,7 +21250,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153090</v>
+        <v>20153057</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23692,7 +21274,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23708,7 +21290,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23724,7 +21306,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23740,7 +21322,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23756,7 +21338,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23771,9 +21353,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23781,7 +21361,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23792,7 +21372,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23801,7 +21381,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23813,15 +21393,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>93</v>
+      <c r="H17" s="20">
+        <v>110101373702</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23917,7 +21497,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23944,7 +21524,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23960,7 +21540,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24263,7 +21843,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153057</v>
+        <v>20153074</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24287,7 +21867,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24303,7 +21883,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24319,7 +21899,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24335,7 +21915,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24351,7 +21931,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24366,9 +21946,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24376,7 +21954,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24387,7 +21965,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24396,7 +21974,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24408,7 +21986,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24416,7 +21994,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20">
-        <v>110101373702</v>
+        <v>391411</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24555,7 +22133,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24858,7 +22436,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153074</v>
+        <v>20153077</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24882,7 +22460,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24898,7 +22476,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24914,7 +22492,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24930,7 +22508,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24946,7 +22524,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24961,9 +22539,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24971,7 +22547,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24982,7 +22558,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24991,7 +22567,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25003,15 +22579,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>391411</v>
+      <c r="H17" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25107,7 +22683,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25134,7 +22710,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25150,7 +22726,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
